--- a/data/template_loi_finance.xlsx
+++ b/data/template_loi_finance.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="mahery"/>
+  <fileSharing readOnlyRecommended="0" userName="Ma"/>
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="16095" windowHeight="9660" tabRatio="500"/>
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1759771878" val="1228" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1759771878" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1759771878" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1759771878"/>
+      <pm:revision xmlns:pm="smNativeData" day="1759841465" val="1228" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1759841465" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1759841465" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1759841465"/>
     </ext>
   </extLst>
 </workbook>
@@ -51,14 +51,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;F&quot;;\-#,##0\ &quot;F&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;F&quot;;\-#,##0.00\ &quot;F&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;F&quot;;[Red]\-#,##0.00\ &quot;F&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;F&quot;_-;\-* #,##0\ &quot;F&quot;_-;_-* &quot;-&quot;\ &quot;F&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;F&quot;_-;\-* #,##0.00\ &quot;F&quot;_-;_-* &quot;-&quot;??\ &quot;F&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -68,7 +68,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1759771878" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1759841465" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -83,7 +83,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1759771878" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1759841465" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -99,7 +99,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1759771878" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1759841465" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -108,7 +108,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,8 +118,19 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1759841465" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -135,7 +146,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1759771878"/>
+          <pm:border xmlns:pm="smNativeData" id="1759841465"/>
         </ext>
       </extLst>
     </border>
@@ -154,12 +165,31 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1759771878">
+          <pm:border xmlns:pm="smNativeData" id="1759841465">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1759841465"/>
         </ext>
       </extLst>
     </border>
@@ -179,7 +209,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1759771878" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1759841465" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -446,7 +476,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -603,7 +633,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1759771878" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1759841465" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -612,14 +642,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1759771878" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1759771878" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1759841465" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1759841465" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1759771878" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1759841465" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
